--- a/iot.xlsx
+++ b/iot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>시간</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>목적</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>동작</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>어미</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>case</t>
         </is>
@@ -461,20 +466,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022.01.17 05:41:06 PM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>창문</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>열어</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>줘</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>7</v>
       </c>
     </row>

--- a/iot.xlsx
+++ b/iot.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022.01.17 05:41:06 PM</t>
+          <t>2022.01.17 06:24:54 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>창문</t>
+          <t>불</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>열어</t>
+          <t>켜</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/iot.xlsx
+++ b/iot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,27 +464,75 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022.01.17 06:24:54 PM</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022.01.19 12:35:21 AM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>창문</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>열어</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>줘</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022.01.19 12:35:21 AM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>불</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>켜</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>줘</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/iot.xlsx
+++ b/iot.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022.01.19 12:35:21 AM</t>
+          <t>2022.01.24 02:26:14 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022.01.19 12:35:21 AM</t>
+          <t>2022.01.24 02:26:14 PM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
